--- a/Template/Шаблон для загрузки приложений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки приложений в DirectumRX.xlsx
@@ -1,113 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Приложения" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Приложения" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="162913" refMode="R1C1"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Рег. №</t>
-  </si>
-  <si>
-    <t>Дата регистрации</t>
-  </si>
-  <si>
-    <t>№ договора</t>
-  </si>
-  <si>
-    <t>Дата договора</t>
-  </si>
-  <si>
-    <t>Контрагент</t>
-  </si>
-  <si>
-    <t>Вид документа</t>
-  </si>
-  <si>
-    <t>Содержание</t>
-  </si>
-  <si>
-    <t>Наша организация</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Файл</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Ответственный</t>
-  </si>
-  <si>
-    <t>Подписал</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
-    <t>Регистрация</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Приложение к документу</t>
-  </si>
-  <si>
-    <t>Диагностика 1</t>
-  </si>
-  <si>
-    <t>ТехноСистемы ЗАО</t>
-  </si>
-  <si>
-    <t>Служба генерального директора</t>
-  </si>
-  <si>
-    <t>Templates\TestDocs\testDoc.txt</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <x:si>
+    <x:t>Рег. №</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№ договора</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата договора</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Контрагент</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид документа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Содержание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наша организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файл</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Состояние</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ответственный</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подписал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Журнал регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Регистрация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение к документу</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел продаж</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\temp\123.docx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТехноСистемы, ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.01.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>б/н</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден контрагент "".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вектор-Авто, ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -217,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -294,18 +300,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -592,234 +586,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21">
-        <v>40410</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="3">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="L7" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:T6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="25" style="4" customWidth="1"/>
+    <x:col min="7" max="7" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="19" style="4" customWidth="1"/>
+    <x:col min="9" max="9" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="17" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="18" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="16384" width="9.140625" style="4"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:20" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="15" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="15" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="16" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="16" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="15" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="12" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1"/>
+    </x:row>
+    <x:row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="18"/>
+      <x:c r="B2" s="19"/>
+      <x:c r="C2" s="20" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D2" s="21">
+        <x:v>45313</x:v>
+      </x:c>
+      <x:c r="E2" s="18" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F2" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="22" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="22" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I2" s="22" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="23" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="24"/>
+      <x:c r="L2" s="24"/>
+      <x:c r="M2" s="24"/>
+      <x:c r="N2" s="14"/>
+      <x:c r="O2" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="P2" s="5"/>
+      <x:c r="Q2" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R2" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S2" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="18"/>
+      <x:c r="B3" s="19"/>
+      <x:c r="C3" s="20"/>
+      <x:c r="D3" s="21"/>
+      <x:c r="E3" s="18"/>
+      <x:c r="F3" s="22"/>
+      <x:c r="G3" s="22"/>
+      <x:c r="H3" s="22"/>
+      <x:c r="I3" s="22"/>
+      <x:c r="J3" s="23"/>
+      <x:c r="K3" s="24"/>
+      <x:c r="L3" s="24"/>
+      <x:c r="M3" s="24"/>
+      <x:c r="N3" s="14"/>
+      <x:c r="O3" s="3"/>
+      <x:c r="P3" s="5"/>
+      <x:c r="Q3" s="5"/>
+      <x:c r="R3" s="5"/>
+      <x:c r="S3" s="5"/>
+    </x:row>
+    <x:row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="18"/>
+      <x:c r="B4" s="19"/>
+      <x:c r="C4" s="20"/>
+      <x:c r="D4" s="21"/>
+      <x:c r="E4" s="18"/>
+      <x:c r="F4" s="22"/>
+      <x:c r="G4" s="22"/>
+      <x:c r="H4" s="22"/>
+      <x:c r="I4" s="22"/>
+      <x:c r="J4" s="23"/>
+      <x:c r="K4" s="24"/>
+      <x:c r="L4" s="24"/>
+      <x:c r="M4" s="24"/>
+      <x:c r="N4" s="14"/>
+      <x:c r="O4" s="3"/>
+      <x:c r="P4" s="5"/>
+      <x:c r="Q4" s="5"/>
+      <x:c r="R4" s="5"/>
+      <x:c r="S4" s="5"/>
+    </x:row>
+    <x:row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="18"/>
+      <x:c r="B5" s="19"/>
+      <x:c r="C5" s="20"/>
+      <x:c r="D5" s="21"/>
+      <x:c r="E5" s="18"/>
+      <x:c r="F5" s="22"/>
+      <x:c r="G5" s="22"/>
+      <x:c r="H5" s="22"/>
+      <x:c r="I5" s="22"/>
+      <x:c r="J5" s="23"/>
+      <x:c r="K5" s="24"/>
+      <x:c r="L5" s="24"/>
+      <x:c r="M5" s="24"/>
+      <x:c r="N5" s="14"/>
+      <x:c r="O5" s="3"/>
+      <x:c r="P5" s="5"/>
+      <x:c r="Q5" s="5"/>
+      <x:c r="R5" s="5"/>
+      <x:c r="S5" s="5"/>
+    </x:row>
+    <x:row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="7"/>
+      <x:c r="L6" s="10"/>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>